--- a/BackTest/2019-10-31 BackTest IOST.xlsx
+++ b/BackTest/2019-10-31 BackTest IOST.xlsx
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
@@ -23236,14 +23236,20 @@
         <v>7.29666666666667</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
       </c>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>7.3</v>
+      </c>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23271,14 +23277,20 @@
         <v>7.28666666666667</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
       </c>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>7.29</v>
+      </c>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +23325,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23348,7 +23364,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23383,7 +23403,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -23418,7 +23442,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -23453,7 +23481,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -23488,7 +23520,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -23523,7 +23559,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -23558,7 +23598,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -23593,7 +23637,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -23628,7 +23676,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -23656,14 +23708,20 @@
         <v>7.203333333333336</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
       </c>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>7.22</v>
+      </c>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -23698,7 +23756,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -23733,7 +23795,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -23761,18 +23827,16 @@
         <v>7.166666666666669</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I668" t="n">
         <v>0</v>
       </c>
-      <c r="J668" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
       <c r="L668" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M668" t="n">
@@ -23802,14 +23866,12 @@
         <v>7.200000000000003</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="n">
-        <v>7.09</v>
-      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr"/>
       <c r="L669" t="inlineStr">
         <is>
@@ -23843,14 +23905,12 @@
         <v>7.18666666666667</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr"/>
       <c r="L670" t="inlineStr">
         <is>
@@ -23884,14 +23944,12 @@
         <v>7.17666666666667</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr"/>
       <c r="L671" t="inlineStr">
         <is>
@@ -23925,14 +23983,12 @@
         <v>7.186666666666671</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr"/>
       <c r="L672" t="inlineStr">
         <is>
@@ -23966,14 +24022,12 @@
         <v>7.183333333333338</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr"/>
       <c r="L673" t="inlineStr">
         <is>
@@ -24007,14 +24061,12 @@
         <v>7.183333333333337</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr"/>
       <c r="L674" t="inlineStr">
         <is>
@@ -24048,14 +24100,12 @@
         <v>7.180000000000003</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="n">
-        <v>7.17</v>
-      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr"/>
       <c r="L675" t="inlineStr">
         <is>
@@ -24089,14 +24139,12 @@
         <v>7.176666666666669</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="n">
-        <v>7.17</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr"/>
       <c r="L676" t="inlineStr">
         <is>
@@ -24169,14 +24217,12 @@
         <v>7.130000000000003</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="n">
-        <v>7.07</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr"/>
       <c r="L678" t="inlineStr">
         <is>
@@ -24210,14 +24256,12 @@
         <v>7.11666666666667</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr"/>
       <c r="L679" t="inlineStr">
         <is>
@@ -24251,14 +24295,12 @@
         <v>7.11666666666667</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
       </c>
-      <c r="J680" t="n">
-        <v>7.13</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
       <c r="L680" t="inlineStr">
         <is>
@@ -24292,14 +24334,12 @@
         <v>7.143333333333335</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
       </c>
-      <c r="J681" t="n">
-        <v>7.13</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
       <c r="L681" t="inlineStr">
         <is>
@@ -24333,14 +24373,12 @@
         <v>7.146666666666668</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
       </c>
-      <c r="J682" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
       <c r="L682" t="inlineStr">
         <is>
@@ -24374,14 +24412,12 @@
         <v>7.150000000000001</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
       </c>
-      <c r="J683" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
       <c r="L683" t="inlineStr">
         <is>
@@ -24415,14 +24451,12 @@
         <v>7.180000000000002</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I684" t="n">
         <v>0</v>
       </c>
-      <c r="J684" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="inlineStr">
         <is>
@@ -24456,14 +24490,12 @@
         <v>7.200000000000003</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
       </c>
-      <c r="J685" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
       <c r="L685" t="inlineStr">
         <is>
@@ -24497,14 +24529,12 @@
         <v>7.216666666666669</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="n">
         <v>0</v>
       </c>
-      <c r="J686" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
       <c r="L686" t="inlineStr">
         <is>
@@ -24538,14 +24568,12 @@
         <v>7.176666666666669</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="n">
         <v>0</v>
       </c>
-      <c r="J687" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
       <c r="L687" t="inlineStr">
         <is>
@@ -24579,14 +24607,12 @@
         <v>7.146666666666669</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="n">
         <v>0</v>
       </c>
-      <c r="J688" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
       <c r="L688" t="inlineStr">
         <is>
@@ -24620,14 +24646,12 @@
         <v>7.140000000000003</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
       </c>
-      <c r="J689" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
       <c r="L689" t="inlineStr">
         <is>
@@ -24661,14 +24685,12 @@
         <v>7.143333333333335</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
       </c>
-      <c r="J690" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
       <c r="L690" t="inlineStr">
         <is>
@@ -24702,14 +24724,12 @@
         <v>7.146666666666668</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
       </c>
-      <c r="J691" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="inlineStr">
         <is>
@@ -24782,14 +24802,12 @@
         <v>7.106666666666669</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
       <c r="L693" t="inlineStr">
         <is>
@@ -24823,14 +24841,12 @@
         <v>7.123333333333336</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
       <c r="L694" t="inlineStr">
         <is>
@@ -24864,14 +24880,12 @@
         <v>7.116666666666668</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
       <c r="L695" t="inlineStr">
         <is>
@@ -24905,14 +24919,12 @@
         <v>7.130000000000002</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I696" t="n">
         <v>0</v>
       </c>
-      <c r="J696" t="n">
-        <v>7.09</v>
-      </c>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
       <c r="L696" t="inlineStr">
         <is>
@@ -24946,14 +24958,12 @@
         <v>7.106666666666668</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I697" t="n">
         <v>0</v>
       </c>
-      <c r="J697" t="n">
-        <v>7.09</v>
-      </c>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="inlineStr">
         <is>
@@ -24987,14 +24997,12 @@
         <v>7.110000000000002</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I698" t="n">
         <v>0</v>
       </c>
-      <c r="J698" t="n">
-        <v>7.08</v>
-      </c>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
       <c r="L698" t="inlineStr">
         <is>
@@ -25028,14 +25036,12 @@
         <v>7.110000000000002</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="n">
         <v>0</v>
       </c>
-      <c r="J699" t="n">
-        <v>7.11</v>
-      </c>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="inlineStr">
         <is>
@@ -25069,14 +25075,12 @@
         <v>7.116666666666668</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
       </c>
-      <c r="J700" t="n">
-        <v>7.11</v>
-      </c>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
       <c r="L700" t="inlineStr">
         <is>
@@ -25110,14 +25114,12 @@
         <v>7.130000000000003</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
       </c>
-      <c r="J701" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
       <c r="L701" t="inlineStr">
         <is>
@@ -25151,14 +25153,12 @@
         <v>7.140000000000003</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="n">
         <v>0</v>
       </c>
-      <c r="J702" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="inlineStr">
         <is>
@@ -25192,14 +25192,12 @@
         <v>7.130000000000003</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
       </c>
-      <c r="J703" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
       <c r="L703" t="inlineStr">
         <is>
@@ -25233,14 +25231,12 @@
         <v>7.130000000000005</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
       </c>
-      <c r="J704" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
       <c r="L704" t="inlineStr">
         <is>
@@ -25274,14 +25270,12 @@
         <v>7.116666666666672</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="n">
         <v>0</v>
       </c>
-      <c r="J705" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="inlineStr">
         <is>
@@ -25315,14 +25309,12 @@
         <v>7.136666666666673</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="n">
         <v>0</v>
       </c>
-      <c r="J706" t="n">
-        <v>7.13</v>
-      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
       <c r="L706" t="inlineStr">
         <is>
@@ -25356,14 +25348,12 @@
         <v>7.140000000000005</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
       <c r="L707" t="inlineStr">
         <is>
@@ -25397,14 +25387,12 @@
         <v>7.160000000000006</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
       </c>
-      <c r="J708" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="inlineStr">
         <is>
@@ -25438,14 +25426,12 @@
         <v>7.160000000000006</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
       <c r="L709" t="inlineStr">
         <is>
@@ -25479,14 +25465,12 @@
         <v>7.15333333333334</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>7.12</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
       <c r="L710" t="inlineStr">
         <is>
@@ -25520,14 +25504,12 @@
         <v>7.146666666666673</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
       <c r="L711" t="inlineStr">
         <is>
@@ -25561,14 +25543,12 @@
         <v>7.146666666666673</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>7.14</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
       <c r="L712" t="inlineStr">
         <is>
@@ -25602,14 +25582,12 @@
         <v>7.15333333333334</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
       <c r="L713" t="inlineStr">
         <is>
@@ -25643,14 +25621,12 @@
         <v>7.163333333333338</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
       <c r="L714" t="inlineStr">
         <is>
@@ -25684,14 +25660,12 @@
         <v>7.173333333333339</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
       <c r="L715" t="inlineStr">
         <is>
@@ -25725,14 +25699,12 @@
         <v>7.186666666666672</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
       <c r="L716" t="inlineStr">
         <is>
@@ -25766,14 +25738,12 @@
         <v>7.206666666666673</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
       <c r="L717" t="inlineStr">
         <is>
@@ -25807,14 +25777,12 @@
         <v>7.176666666666673</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
       <c r="L718" t="inlineStr">
         <is>
@@ -25848,14 +25816,12 @@
         <v>7.143333333333339</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
       <c r="L719" t="inlineStr">
         <is>
@@ -25889,14 +25855,12 @@
         <v>7.140000000000005</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>7.22</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
       <c r="L720" t="inlineStr">
         <is>
@@ -25930,14 +25894,12 @@
         <v>7.133333333333337</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>7.09</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
       <c r="L721" t="inlineStr">
         <is>
@@ -25971,14 +25933,12 @@
         <v>7.12666666666667</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>7.08</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
       <c r="L722" t="inlineStr">
         <is>
@@ -26012,14 +25972,12 @@
         <v>7.116666666666671</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>7.19</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
       <c r="L723" t="inlineStr">
         <is>
@@ -26053,14 +26011,12 @@
         <v>7.166666666666671</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>7.23</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
       <c r="L724" t="inlineStr">
         <is>
@@ -26094,14 +26050,12 @@
         <v>7.206666666666671</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
       <c r="L725" t="inlineStr">
         <is>
@@ -26135,14 +26089,12 @@
         <v>7.220000000000003</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>7.23</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
       <c r="L726" t="inlineStr">
         <is>
@@ -26176,14 +26128,12 @@
         <v>7.210000000000004</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>7.23</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
       <c r="L727" t="inlineStr">
         <is>
@@ -26217,14 +26167,12 @@
         <v>7.210000000000004</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
       <c r="L728" t="inlineStr">
         <is>
@@ -26258,14 +26206,12 @@
         <v>7.176666666666669</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>7.2</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="inlineStr">
         <is>
@@ -26299,14 +26245,12 @@
         <v>7.163333333333337</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="inlineStr">
         <is>
@@ -26340,14 +26284,12 @@
         <v>7.146666666666669</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>7.16</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
       <c r="L731" t="inlineStr">
         <is>
@@ -26381,14 +26323,12 @@
         <v>7.166666666666671</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
       <c r="L732" t="inlineStr">
         <is>
@@ -26422,14 +26362,12 @@
         <v>7.183333333333337</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>7.18</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
       <c r="L733" t="inlineStr">
         <is>
@@ -26463,14 +26401,12 @@
         <v>7.206666666666671</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>7.21</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
       <c r="L734" t="inlineStr">
         <is>
@@ -26504,14 +26440,12 @@
         <v>7.193333333333336</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>7.22</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="inlineStr">
         <is>
@@ -26545,14 +26479,12 @@
         <v>7.166666666666669</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>7.15</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
       <c r="L736" t="inlineStr">
         <is>
@@ -26586,14 +26518,12 @@
         <v>7.136666666666669</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>7.13</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
       <c r="L737" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest IOST.xlsx
+++ b/BackTest/2019-10-31 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8775836.013788005</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>8744551.464588005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.43</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>8775751.637688005</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>8878639.818688005</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.48</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +753,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +790,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +827,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +864,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +897,17 @@
         <v>9037900.187857414</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +936,17 @@
         <v>9599741.794918552</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +975,17 @@
         <v>9093932.269318553</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1014,17 @@
         <v>10163957.62931855</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8.109999999999999</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1053,17 @@
         <v>11132578.61001855</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1096,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1133,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1170,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1207,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1244,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1281,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1318,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1355,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1392,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1429,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1466,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1503,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1540,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1577,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1614,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1651,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1688,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1725,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1799,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1836,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1947,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1984,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2021,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2058,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2095,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2132,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2169,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2206,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2243,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2280,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2317,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2354,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2391,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2428,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2465,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2502,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2539,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2576,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2613,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2650,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2687,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2724,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2761,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2798,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2835,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2872,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2909,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2946,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2983,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3020,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3057,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3094,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3131,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3168,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3205,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3242,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3279,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3316,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3353,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3390,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3427,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3464,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3501,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3538,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3575,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3612,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3649,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3686,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3723,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3760,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3797,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3834,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3871,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3908,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3945,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3982,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4019,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4056,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4093,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4130,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4167,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4204,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4241,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4278,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4315,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4352,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4389,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4426,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4463,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4500,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4537,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4574,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4611,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4648,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4685,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4722,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4759,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4796,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4833,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4870,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4903,15 @@
         <v>21875547.21944609</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4944,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4981,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5018,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +5051,16 @@
         <v>24512986.54891209</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
@@ -4609,7 +5119,7 @@
         <v>24231730.60141209</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +5152,7 @@
         <v>24327737.69981209</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +5185,7 @@
         <v>24327638.68991209</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +5218,7 @@
         <v>24216059.62151209</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +5251,7 @@
         <v>24088643.68881209</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +5284,7 @@
         <v>24410452.06561209</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +5317,7 @@
         <v>24253263.96101209</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5350,7 @@
         <v>24071402.04361209</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +5383,7 @@
         <v>24627145.67181209</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +5416,7 @@
         <v>25696670.10023467</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5449,7 @@
         <v>25476829.79523467</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5482,7 @@
         <v>25488953.55153467</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5515,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5548,7 @@
         <v>24948406.20983467</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5581,7 @@
         <v>24201427.58503467</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5614,7 @@
         <v>24476980.90233467</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5647,7 @@
         <v>24493960.71133467</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5680,7 @@
         <v>24174339.98213467</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5713,7 @@
         <v>23913898.36323467</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5746,7 @@
         <v>23487508.48403467</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5779,7 @@
         <v>23487508.48403467</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5812,7 @@
         <v>23665028.04913467</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5845,7 @@
         <v>24052474.41403467</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5878,7 @@
         <v>24073637.74663467</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5911,7 @@
         <v>24029532.91833467</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5944,7 @@
         <v>24131680.39273467</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5977,7 @@
         <v>24123898.98423467</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +6043,7 @@
         <v>24519620.96133467</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +6076,7 @@
         <v>24181860.20403467</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +6109,7 @@
         <v>24338801.51903467</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +6142,7 @@
         <v>24518263.69773467</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +6175,7 @@
         <v>24529854.69773467</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +6208,7 @@
         <v>24526721.94673467</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +6241,7 @@
         <v>24526721.94673467</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6274,7 @@
         <v>24526487.94673467</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5830,7 +6340,7 @@
         <v>25308981.25823467</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6373,7 @@
         <v>25308981.25823467</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5962,7 +6472,7 @@
         <v>25312939.04353467</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6094,7 +6604,7 @@
         <v>25566814.86583468</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6637,7 @@
         <v>25621793.73330944</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6670,7 @@
         <v>25623971.26660944</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6703,7 @@
         <v>25579110.86940944</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6736,7 @@
         <v>25579088.86940944</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6769,7 @@
         <v>25562005.89890944</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6802,7 @@
         <v>25562005.89890944</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6835,7 @@
         <v>25129578.32600944</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6868,7 @@
         <v>25077347.93231821</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6901,7 @@
         <v>25137880.47605568</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6934,7 @@
         <v>25137880.47605568</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6967,7 @@
         <v>25046597.01395568</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7000,7 @@
         <v>25046597.01395568</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7033,7 @@
         <v>25046597.01395568</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7066,7 @@
         <v>24950740.09675568</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7099,7 @@
         <v>23471712.01025568</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7132,7 @@
         <v>24023971.66375569</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7165,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7198,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7231,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7264,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7297,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7330,7 @@
         <v>23896115.09905569</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7363,7 @@
         <v>23856628.51615569</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6985,7 +7495,7 @@
         <v>23570471.05555569</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7051,7 +7561,7 @@
         <v>23620645.01865569</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7594,7 @@
         <v>23473237.39195569</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7216,7 +7726,7 @@
         <v>23314495.19075569</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7282,7 +7792,7 @@
         <v>23531687.04565569</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7825,7 @@
         <v>23621690.89635568</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7546,7 +8056,7 @@
         <v>23907647.99555568</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8371,7 +8881,7 @@
         <v>24252162.74245569</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8437,7 +8947,7 @@
         <v>24179741.05865569</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8980,7 @@
         <v>24164330.65565569</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +9013,7 @@
         <v>24439512.20745569</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +9046,7 @@
         <v>24465627.64195569</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +9079,7 @@
         <v>25350034.51736076</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +9112,7 @@
         <v>25032742.18436076</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +9145,7 @@
         <v>25192294.43161704</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9178,7 @@
         <v>25424296.58401594</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9211,7 @@
         <v>25727404.14231197</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9244,7 @@
         <v>25727404.14231197</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9277,7 @@
         <v>25487138.66991197</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9310,7 @@
         <v>25391405.56957477</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9343,7 @@
         <v>25391405.56957477</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9376,7 @@
         <v>25324178.15087477</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9409,7 @@
         <v>25328868.59097477</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9442,7 @@
         <v>25324251.73347477</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9475,7 @@
         <v>25525239.23697477</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9508,7 @@
         <v>25540115.72047477</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9541,7 @@
         <v>25465776.81597477</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9574,7 @@
         <v>25335441.82757477</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9607,7 @@
         <v>25335441.82757477</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9640,7 @@
         <v>25230790.45597477</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9673,7 @@
         <v>25230790.45597477</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9706,7 @@
         <v>25294434.14697477</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9739,7 @@
         <v>24788973.13817477</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9772,7 @@
         <v>24573730.94877477</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9805,7 @@
         <v>25280612.38127477</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9838,7 @@
         <v>25280612.38127477</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9871,7 @@
         <v>25306746.93717477</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9724,7 +10234,7 @@
         <v>24696072.36076229</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +10267,7 @@
         <v>24232214.39226229</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9823,7 +10333,7 @@
         <v>21594448.32166229</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10366,7 @@
         <v>20330607.92786229</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +10399,7 @@
         <v>21984915.17696229</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +10432,7 @@
         <v>21965972.18606229</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10465,7 @@
         <v>21892069.54266229</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10498,7 @@
         <v>21592330.23286229</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10531,7 @@
         <v>21596033.75356229</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10564,7 @@
         <v>21603745.3753623</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10597,7 @@
         <v>21535248.0190623</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10630,7 @@
         <v>21635706.35239563</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10663,7 @@
         <v>21523974.50889563</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10696,7 @@
         <v>21682148.42079563</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10729,7 @@
         <v>21729872.42079563</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10762,7 @@
         <v>21729762.42079563</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10795,7 @@
         <v>21464603.28199563</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10828,7 @@
         <v>21464548.28199563</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10861,7 @@
         <v>21446918.02390694</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10894,7 @@
         <v>21434648.27040694</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10927,7 @@
         <v>21233534.2895738</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10960,7 @@
         <v>21158882.85445256</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +11026,7 @@
         <v>20488185.57945256</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10747,7 +11257,7 @@
         <v>19913444.93235255</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +11290,7 @@
         <v>20091133.87505255</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11323,7 @@
         <v>20320249.77465255</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11356,7 @@
         <v>20320249.77465255</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11389,7 @@
         <v>20896549.38585255</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +11422,7 @@
         <v>20658618.73013154</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +11455,7 @@
         <v>20658643.73013154</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +11488,7 @@
         <v>20652976.90793154</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11521,7 @@
         <v>21036061.27813154</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11554,7 @@
         <v>21036041.32813154</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11587,7 @@
         <v>21078790.65953154</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11143,7 +11653,7 @@
         <v>20999420.43683154</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11209,7 +11719,7 @@
         <v>20435228.77943154</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11275,7 +11785,7 @@
         <v>20594528.43839932</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11818,7 @@
         <v>20424509.57699932</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11851,7 @@
         <v>20424569.57699932</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11407,7 +11917,7 @@
         <v>20392295.78009932</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11935,7 +12445,7 @@
         <v>20493790.85569932</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -23188,14 +23698,10 @@
         <v>19938686.47706056</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
-      </c>
-      <c r="I691" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="J691" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
@@ -23228,14 +23734,8 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23267,14 +23767,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24260,17 +24754,11 @@
         <v>18229138.61256056</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
-      </c>
-      <c r="I723" t="n">
-        <v>7.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24303,11 +24791,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24340,11 +24824,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24377,11 +24857,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24414,11 +24890,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24451,11 +24923,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24488,11 +24956,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24521,17 +24985,11 @@
         <v>17869824.71857975</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
-      </c>
-      <c r="I730" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24560,17 +25018,11 @@
         <v>17869834.71857975</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24599,17 +25051,11 @@
         <v>17869834.71857975</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24638,17 +25084,11 @@
         <v>17429834.71857975</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24677,17 +25117,11 @@
         <v>18279083.01147975</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
-      </c>
-      <c r="I734" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24716,17 +25150,11 @@
         <v>18279083.01147975</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
-      </c>
-      <c r="I735" t="n">
-        <v>7.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24755,17 +25183,11 @@
         <v>18170318.44677975</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
-      </c>
-      <c r="I736" t="n">
-        <v>7.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24794,17 +25216,11 @@
         <v>18122991.12617975</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
-      </c>
-      <c r="I737" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24833,17 +25249,11 @@
         <v>18123053.25857975</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
-      </c>
-      <c r="I738" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24876,11 +25286,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24913,11 +25319,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24950,11 +25352,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -24987,11 +25385,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25024,11 +25418,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25061,11 +25451,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25098,11 +25484,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25131,17 +25513,11 @@
         <v>19009097.44867975</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25170,17 +25546,11 @@
         <v>19009097.44867975</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25209,17 +25579,11 @@
         <v>19259097.44867975</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25248,17 +25612,11 @@
         <v>18481363.24847975</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>7.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25287,17 +25645,11 @@
         <v>18481363.24847975</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25326,17 +25678,11 @@
         <v>18452743.24847975</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
-      </c>
-      <c r="I751" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25365,17 +25711,11 @@
         <v>18390306.02597975</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
-      </c>
-      <c r="I752" t="n">
-        <v>7.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25404,17 +25744,11 @@
         <v>18390377.02597975</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
-      </c>
-      <c r="I753" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25443,17 +25777,11 @@
         <v>18244306.05427974</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
-      </c>
-      <c r="I754" t="n">
-        <v>7.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25482,17 +25810,11 @@
         <v>18252242.66197975</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
-      </c>
-      <c r="I755" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25521,17 +25843,11 @@
         <v>18252242.66197975</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
-      </c>
-      <c r="I756" t="n">
-        <v>7.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +25880,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25597,17 +25909,11 @@
         <v>18252242.66197975</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="n">
-        <v>7.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25636,17 +25942,11 @@
         <v>18259569.51427975</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
-      </c>
-      <c r="I759" t="n">
-        <v>7.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25679,11 +25979,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25712,17 +26008,11 @@
         <v>18799304.00697974</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25751,17 +26041,11 @@
         <v>18397921.09957974</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25790,17 +26074,11 @@
         <v>18628567.61857975</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25829,17 +26107,11 @@
         <v>18492006.78657975</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25868,17 +26140,11 @@
         <v>18537858.21177975</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25911,11 +26177,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25944,17 +26206,11 @@
         <v>18537858.21177975</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
-      </c>
-      <c r="I767" t="n">
-        <v>7.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25987,11 +26243,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26020,17 +26272,11 @@
         <v>17956352.82217975</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
-      </c>
-      <c r="I769" t="n">
-        <v>7.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26063,11 +26309,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26096,17 +26338,11 @@
         <v>17961140.95457974</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
-      </c>
-      <c r="I771" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26135,17 +26371,11 @@
         <v>17961140.95457974</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
-      </c>
-      <c r="I772" t="n">
-        <v>7.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26174,17 +26404,11 @@
         <v>17972165.97767974</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="n">
-        <v>7.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26213,17 +26437,11 @@
         <v>17977021.97767974</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
-      </c>
-      <c r="I774" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26252,17 +26470,11 @@
         <v>18089021.97767974</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
-      </c>
-      <c r="I775" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26291,17 +26503,11 @@
         <v>18189021.97767974</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
-      </c>
-      <c r="I776" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26330,17 +26536,11 @@
         <v>18187359.79887974</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
-      </c>
-      <c r="I777" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26369,17 +26569,11 @@
         <v>18187359.79887974</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26408,17 +26602,11 @@
         <v>18187370.79887974</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
-      </c>
-      <c r="I779" t="n">
-        <v>7.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26447,17 +26635,11 @@
         <v>18121480.89777974</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26486,17 +26668,11 @@
         <v>18121480.89777974</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
-      </c>
-      <c r="I781" t="n">
-        <v>7.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26525,17 +26701,11 @@
         <v>18123480.89777974</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="n">
-        <v>7.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26564,17 +26734,11 @@
         <v>18123927.09417975</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26603,17 +26767,11 @@
         <v>18063634.86617975</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
-      </c>
-      <c r="I784" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26642,17 +26800,11 @@
         <v>18075704.86617975</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
-      </c>
-      <c r="I785" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26681,17 +26833,11 @@
         <v>18030010.30577974</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
-      </c>
-      <c r="I786" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26720,17 +26866,11 @@
         <v>18030010.30577974</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
-      </c>
-      <c r="I787" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26759,17 +26899,11 @@
         <v>18029990.30577974</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
-      </c>
-      <c r="I788" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26798,17 +26932,11 @@
         <v>18030358.52497974</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
-      </c>
-      <c r="I789" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26837,17 +26965,11 @@
         <v>17543529.73937974</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
-      </c>
-      <c r="I790" t="n">
-        <v>7.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26876,17 +26998,11 @@
         <v>17544195.73937974</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26915,17 +27031,11 @@
         <v>17674652.15437974</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26954,17 +27064,11 @@
         <v>17754398.22017974</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>7.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26993,17 +27097,11 @@
         <v>17603655.61467974</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27032,17 +27130,11 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>7.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27071,17 +27163,11 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
-      </c>
-      <c r="I796" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27110,17 +27196,11 @@
         <v>17480827.32577974</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
-      </c>
-      <c r="I797" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27149,17 +27229,11 @@
         <v>17481627.32577974</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27188,17 +27262,11 @@
         <v>17452930.81597975</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
-      </c>
-      <c r="I799" t="n">
-        <v>7.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27227,17 +27295,11 @@
         <v>17454930.81597975</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
-      </c>
-      <c r="I800" t="n">
-        <v>7.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27266,17 +27328,11 @@
         <v>17459930.81597975</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
-      </c>
-      <c r="I801" t="n">
-        <v>7.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27305,17 +27361,11 @@
         <v>17452749.81847975</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
-      </c>
-      <c r="I802" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27344,17 +27394,11 @@
         <v>17458304.81847975</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
-      </c>
-      <c r="I803" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27383,17 +27427,11 @@
         <v>17458304.81847975</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
-      </c>
-      <c r="I804" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27422,17 +27460,11 @@
         <v>17710505.45447213</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
-      </c>
-      <c r="I805" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27461,23 +27493,17 @@
         <v>17710505.45447213</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
-      </c>
-      <c r="I806" t="n">
-        <v>7.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
       <c r="M806" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>